--- a/doc/10 众包/01 任务台账/任务台账.xlsx
+++ b/doc/10 众包/01 任务台账/任务台账.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>20151019-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>商品导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张健</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,8 +497,12 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="24.95" customHeight="1">
       <c r="B5" s="1"/>

--- a/doc/10 众包/01 任务台账/任务台账.xlsx
+++ b/doc/10 众包/01 任务台账/任务台账.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>20151019-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,46 @@
   </si>
   <si>
     <t>张健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151028-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>H5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫俊聪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,11 +545,19 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="24.95" customHeight="1">
       <c r="B6" s="1"/>

--- a/doc/10 众包/01 任务台账/任务台账.xlsx
+++ b/doc/10 众包/01 任务台账/任务台账.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>20151019-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>莫俊聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151104-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张雷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,11 +572,19 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="24.95" customHeight="1">
       <c r="B7" s="1"/>

--- a/doc/10 众包/01 任务台账/任务台账.xlsx
+++ b/doc/10 众包/01 任务台账/任务台账.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>20151019-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>张雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151104-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户资料导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,11 +595,19 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="24.95" customHeight="1">
       <c r="B8" s="1"/>

--- a/doc/10 众包/01 任务台账/任务台账.xlsx
+++ b/doc/10 众包/01 任务台账/任务台账.xlsx
@@ -604,7 +604,9 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>7</v>
       </c>

--- a/doc/10 众包/01 任务台账/任务台账.xlsx
+++ b/doc/10 众包/01 任务台账/任务台账.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>20151019-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,42 @@
   </si>
   <si>
     <t>客户资料导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151110-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高导入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的易用</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,9 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -612,11 +646,19 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="24.95" customHeight="1">
       <c r="B9" s="1"/>

--- a/doc/10 众包/01 任务台账/任务台账.xlsx
+++ b/doc/10 众包/01 任务台账/任务台账.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>20151019-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,18 @@
       </rPr>
       <t>的易用</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151115-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品价格查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫俊聪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +620,9 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
@@ -661,11 +675,19 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="24.95" customHeight="1">
       <c r="B10" s="1"/>

--- a/doc/10 众包/01 任务台账/任务台账.xlsx
+++ b/doc/10 众包/01 任务台账/任务台账.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>20151019-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
   </si>
   <si>
     <t>菜单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张雷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -638,16 +634,14 @@
         <v>4</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6" ht="24.95" customHeight="1">
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -661,10 +655,10 @@
     </row>
     <row r="8" spans="2:6" ht="24.95" customHeight="1">
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -676,17 +670,17 @@
     </row>
     <row r="9" spans="2:6" ht="24.95" customHeight="1">
       <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="24.95" customHeight="1">

--- a/doc/10 众包/01 任务台账/任务台账.xlsx
+++ b/doc/10 众包/01 任务台账/任务台账.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>20151019-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>商品价格查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫俊聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160620-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据-科目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -684,11 +696,19 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>16</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="24.95" customHeight="1">
       <c r="B11" s="1"/>
